--- a/Projects/VoortoetsAGT/cases/UitkerkDens/UitkerkDens.xlsx
+++ b/Projects/VoortoetsAGT/cases/UitkerkDens/UitkerkDens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/GRWMODELS/python/mf6lab/Projects/VoortoetsAGT/cases/UitkerkDens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B34DB8C-7B55-CE44-B1EE-5BF4A400FE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE54050-4781-D647-BC87-72E4F1C8F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="960" windowWidth="30600" windowHeight="19860" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="960" windowWidth="30600" windowHeight="19860" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAM" sheetId="1" r:id="rId1"/>
@@ -1954,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3515,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06500DB-BECE-8C4B-B4E6-A47BC546FCEB}">
   <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7937,7 +7937,7 @@
         <v>26</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.15">
